--- a/biology/Histoire de la zoologie et de la botanique/Peter_Friedrich_Röding/Peter_Friedrich_Röding.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Friedrich_Röding/Peter_Friedrich_Röding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peter_Friedrich_R%C3%B6ding</t>
+          <t>Peter_Friedrich_Röding</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Friedrich Röding est un malacologiste allemand, né le 17 juin 1767 et mort le 8 juin 1846.
 On ne connaît que fort peu de choses sur ce naturaliste qui vivait à Hambourg. Il est le principal auteur d’un catalogue d’une importante collection de coquillages qui paraît en 1798 sous le titre de Museum Boltenianum sive Catalogus cimeliorum e tribus regnis naturae. Pars secunda contens Conchylia… Hamburg. Ce catalogue décrivant cette collection et destiné à en permettre la vente en bloc est tombé dans l’oubli jusqu’en 1925 lorsque William Healey Dall (1845-1927) en établit la justesse taxinomique. C’est ainsi que Röding se vit créditer de nombreux taxons.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peter_Friedrich_R%C3%B6ding</t>
+          <t>Peter_Friedrich_Röding</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(la) Röding P.F., 1798. Museum Boltenianum sive Catalogus cimeliorum e tribus regnis naturæ quæ olim collegerat Joa. Fried Bolten, M. D. p. d. per XL. annos proto physicus Hamburgensis. Pars secunda continens Conchylia sive Testacea univalvia, bivalvia &amp; multivalvia. Trapp, Hamburg. viii, 199 pp.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peter_Friedrich_R%C3%B6ding</t>
+          <t>Peter_Friedrich_Röding</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dictionnaire de malacologie de la Société belge de malacologie (en français)</t>
         </is>
